--- a/data/trans_orig/P6706-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>24288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16471</v>
+        <v>16483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34882</v>
+        <v>32197</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2965406421748917</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2011037159936731</v>
+        <v>0.2012490374283677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4258943588646637</v>
+        <v>0.3931102466955201</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -764,19 +764,19 @@
         <v>13732</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8492</v>
+        <v>7935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20890</v>
+        <v>21641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1563989140252348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0967227578933582</v>
+        <v>0.09037416309450019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2379291661207786</v>
+        <v>0.2464723379912375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -785,19 +785,19 @@
         <v>38020</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28835</v>
+        <v>27334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49515</v>
+        <v>49121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2240349324098567</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1699146565563879</v>
+        <v>0.1610685289573692</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2917735065831339</v>
+        <v>0.289451653791331</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>8816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4059</v>
+        <v>3961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15944</v>
+        <v>15780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1076336372382861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04955335038003537</v>
+        <v>0.04836683809394302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1946722411586172</v>
+        <v>0.1926593345539852</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -835,19 +835,19 @@
         <v>10164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5811</v>
+        <v>4988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17658</v>
+        <v>16768</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1157671032067051</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06618576023468237</v>
+        <v>0.05680826114693083</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2011110095033419</v>
+        <v>0.1909794789815013</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -856,19 +856,19 @@
         <v>18980</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11736</v>
+        <v>12562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28173</v>
+        <v>28023</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1118416824128127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06915764500802071</v>
+        <v>0.07401966197020429</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1660136546194366</v>
+        <v>0.1651267006243841</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>13729</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7797</v>
+        <v>7794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21435</v>
+        <v>21643</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1676171291010261</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09520099465290961</v>
+        <v>0.09515965715358676</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2617148818712911</v>
+        <v>0.2642443917799842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -906,19 +906,19 @@
         <v>16411</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10224</v>
+        <v>9686</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24512</v>
+        <v>24397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1869156054941684</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1164415579853823</v>
+        <v>0.1103197386822956</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2791786263493228</v>
+        <v>0.2778666617819995</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -927,19 +927,19 @@
         <v>30140</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20842</v>
+        <v>21529</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40578</v>
+        <v>41370</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.177601662235756</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1228102925785442</v>
+        <v>0.1268634247222027</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2391074636641436</v>
+        <v>0.2437749202030842</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>13409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7490</v>
+        <v>7305</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22153</v>
+        <v>21267</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1637174150780374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09145447674152438</v>
+        <v>0.08918858647665967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2704782529643894</v>
+        <v>0.2596570979757755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -977,19 +977,19 @@
         <v>18335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11317</v>
+        <v>11704</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27034</v>
+        <v>27408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.208824647273887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1288971034176717</v>
+        <v>0.1333000084173451</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.307902648338271</v>
+        <v>0.3121609571279629</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -998,19 +998,19 @@
         <v>31744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21341</v>
+        <v>22144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43478</v>
+        <v>43063</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.18705473172939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1257548512597159</v>
+        <v>0.1304875241973495</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2561982602704414</v>
+        <v>0.253749353857058</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>21663</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13122</v>
+        <v>14380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31271</v>
+        <v>31391</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2644911764077587</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1602163908143613</v>
+        <v>0.1755663327300744</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3818046124680268</v>
+        <v>0.3832717817738261</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1048,19 +1048,19 @@
         <v>29158</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20442</v>
+        <v>21327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37023</v>
+        <v>38580</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3320937300000046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2328264471795416</v>
+        <v>0.2429035278293482</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4216732149772709</v>
+        <v>0.4394067195846682</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -1069,19 +1069,19 @@
         <v>50821</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37949</v>
+        <v>39887</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63026</v>
+        <v>64737</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2994669912121846</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2236190955895019</v>
+        <v>0.235039668244045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.371385500018504</v>
+        <v>0.3814698823478811</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>72569</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58199</v>
+        <v>58449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88152</v>
+        <v>89281</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1905240635706726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1527981535641589</v>
+        <v>0.1534531335158829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2314381129091463</v>
+        <v>0.2344012350364836</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1194,19 +1194,19 @@
         <v>48673</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36825</v>
+        <v>36676</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63101</v>
+        <v>63384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1762416000072465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1333397749696558</v>
+        <v>0.1328020141595606</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2284829020526473</v>
+        <v>0.2295083548881285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -1215,19 +1215,19 @@
         <v>121242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101865</v>
+        <v>102069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>140820</v>
+        <v>141653</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1845209319695359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1550316686831177</v>
+        <v>0.1553417599639394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2143170824675418</v>
+        <v>0.2155856839910542</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>42190</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31022</v>
+        <v>30959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56067</v>
+        <v>56847</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1107667579851389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08144722107581634</v>
+        <v>0.08127967361985224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1471991492180433</v>
+        <v>0.1492488095253878</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -1265,19 +1265,19 @@
         <v>29060</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20212</v>
+        <v>19743</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40607</v>
+        <v>40447</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1052239915445471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07318668286214354</v>
+        <v>0.07148833244058213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1470347825077498</v>
+        <v>0.1464553938290398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -1286,19 +1286,19 @@
         <v>71250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57163</v>
+        <v>55735</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88984</v>
+        <v>89506</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.108437050912583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08699765145135401</v>
+        <v>0.08482404383267772</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1354266939180762</v>
+        <v>0.1362221754784</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>69687</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55946</v>
+        <v>53850</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85321</v>
+        <v>84621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1829579982471975</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.146882308234897</v>
+        <v>0.1413786245121884</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2240048770664825</v>
+        <v>0.222166588814747</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -1336,19 +1336,19 @@
         <v>58914</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46905</v>
+        <v>45747</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75294</v>
+        <v>74856</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2133227806772429</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1698395786987965</v>
+        <v>0.1656467596688165</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.27263430233049</v>
+        <v>0.2710468393018083</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>125</v>
@@ -1357,19 +1357,19 @@
         <v>128601</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>107276</v>
+        <v>109070</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149721</v>
+        <v>151278</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.195720767370182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.163266784727098</v>
+        <v>0.1659958487233189</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2278641240718716</v>
+        <v>0.2302333814532624</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>76457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62332</v>
+        <v>61494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93152</v>
+        <v>93255</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2007327805000191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1636478166582338</v>
+        <v>0.1614495027173745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2445637579551043</v>
+        <v>0.2448358402079437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1407,19 +1407,19 @@
         <v>48457</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36427</v>
+        <v>37097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61804</v>
+        <v>62771</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1754592554801671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1318979293683245</v>
+        <v>0.1343238554229707</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2237883933863633</v>
+        <v>0.2272903444804707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -1428,19 +1428,19 @@
         <v>124914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107532</v>
+        <v>105715</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149574</v>
+        <v>145841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1901099424969654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1636561540151544</v>
+        <v>0.1608903623301024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2276408375970756</v>
+        <v>0.2219587285522095</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>119987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101373</v>
+        <v>100940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141038</v>
+        <v>139699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3150183996969719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2661489844852452</v>
+        <v>0.2650128831714254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3702864508522448</v>
+        <v>0.3667705713210385</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -1478,19 +1478,19 @@
         <v>91069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>75581</v>
+        <v>75122</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108773</v>
+        <v>106582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3297523722907963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2736712758524684</v>
+        <v>0.2720099079584029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3938582552829291</v>
+        <v>0.3859245300359441</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>190</v>
@@ -1499,19 +1499,19 @@
         <v>211056</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187654</v>
+        <v>185019</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>237938</v>
+        <v>237105</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3212113072507337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2855953368852933</v>
+        <v>0.2815857998013765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3621236981370002</v>
+        <v>0.3608564289202988</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>73407</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59423</v>
+        <v>58771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91193</v>
+        <v>89864</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1750966506433596</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1417394530792438</v>
+        <v>0.140186029766312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.217520279380839</v>
+        <v>0.2143502570919493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1624,19 +1624,19 @@
         <v>45227</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32484</v>
+        <v>34035</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59541</v>
+        <v>59529</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1593766574742966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1144726362224553</v>
+        <v>0.1199376543613256</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2098193409981338</v>
+        <v>0.2097767909065315</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -1645,19 +1645,19 @@
         <v>118634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98993</v>
+        <v>98769</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140784</v>
+        <v>139933</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1687512315463913</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1408125281885629</v>
+        <v>0.1404936726754893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2002580891531651</v>
+        <v>0.199048523427681</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>52624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39212</v>
+        <v>40117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68045</v>
+        <v>67727</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1255239647546455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09353077548178525</v>
+        <v>0.09568962779684877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1623056327846541</v>
+        <v>0.1615485937257713</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1695,19 +1695,19 @@
         <v>30313</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20421</v>
+        <v>21531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41924</v>
+        <v>42647</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1068222575972652</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07196237484735103</v>
+        <v>0.07587545507607131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.147736826886275</v>
+        <v>0.1502876648141934</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>79</v>
@@ -1716,19 +1716,19 @@
         <v>82938</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>66157</v>
+        <v>67106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103088</v>
+        <v>100948</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1179749684881654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09410587818661266</v>
+        <v>0.09545487118229846</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1466378494646366</v>
+        <v>0.1435931080672475</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>94701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79274</v>
+        <v>78607</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112943</v>
+        <v>112404</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2258881918402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1890907261405629</v>
+        <v>0.1875005131714137</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2694013389532339</v>
+        <v>0.2681145764235721</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -1766,19 +1766,19 @@
         <v>68351</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54732</v>
+        <v>54082</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82578</v>
+        <v>82585</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2408666205367881</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1928729547232282</v>
+        <v>0.190583792735713</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2909999494547574</v>
+        <v>0.2910268445625999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -1787,19 +1787,19 @@
         <v>163052</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143501</v>
+        <v>140950</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>188343</v>
+        <v>186553</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2319342763691014</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2041239082277372</v>
+        <v>0.2004944738866882</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2679094490659698</v>
+        <v>0.2653622223208176</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>87073</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71758</v>
+        <v>70007</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105504</v>
+        <v>105096</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.207694033282614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1711621684201463</v>
+        <v>0.1669864600442127</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.251655742770393</v>
+        <v>0.2506832195017479</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -1837,19 +1837,19 @@
         <v>56170</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44017</v>
+        <v>43420</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69827</v>
+        <v>71653</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1979404194654072</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1551146172829239</v>
+        <v>0.1530101625079821</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2460686025450374</v>
+        <v>0.2525024792469623</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -1858,19 +1858,19 @@
         <v>143243</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123447</v>
+        <v>121755</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>164678</v>
+        <v>164926</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2037569598555111</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1755980727048565</v>
+        <v>0.1731901124641872</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2342469678616453</v>
+        <v>0.234599402920286</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>111432</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92856</v>
+        <v>93691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130555</v>
+        <v>133051</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2657971594791809</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2214874678320452</v>
+        <v>0.2234800464897474</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3114098873539131</v>
+        <v>0.3173629003801861</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -1908,19 +1908,19 @@
         <v>83711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69371</v>
+        <v>68623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100562</v>
+        <v>99491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.294994044926243</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2444609090927223</v>
+        <v>0.2418245336111431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3543767216192072</v>
+        <v>0.350600250347423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -1929,19 +1929,19 @@
         <v>195144</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>171197</v>
+        <v>172475</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>220298</v>
+        <v>221222</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2775825637408308</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2435190993789967</v>
+        <v>0.2453368690599342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3133634449594037</v>
+        <v>0.3146777567795058</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>59325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46326</v>
+        <v>46112</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75525</v>
+        <v>74451</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1618080765508799</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1263519058716923</v>
+        <v>0.1257695413374007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2059926011076532</v>
+        <v>0.2030625439260245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2054,19 +2054,19 @@
         <v>32848</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22700</v>
+        <v>22283</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45945</v>
+        <v>45460</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1493645969588765</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1032204909652718</v>
+        <v>0.1013244163667347</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2089179799796758</v>
+        <v>0.2067109120014823</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -2075,19 +2075,19 @@
         <v>92174</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75463</v>
+        <v>74401</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113631</v>
+        <v>111705</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1571426009419476</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1286528329618056</v>
+        <v>0.1268424964006358</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1937249609379171</v>
+        <v>0.1904402868376359</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>42730</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31324</v>
+        <v>31273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55996</v>
+        <v>57688</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1165460609070152</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0854364104188252</v>
+        <v>0.08529751969794308</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1527286162438577</v>
+        <v>0.1573430710049046</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -2125,19 +2125,19 @@
         <v>30999</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20906</v>
+        <v>21039</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43490</v>
+        <v>44000</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1409562241412607</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09506078769943675</v>
+        <v>0.09566460690957126</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1977532048589612</v>
+        <v>0.2000740833183078</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>65</v>
@@ -2146,19 +2146,19 @@
         <v>73730</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>55459</v>
+        <v>58919</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>90866</v>
+        <v>93740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1256982454175772</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09455042152244676</v>
+        <v>0.1004489120578496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1549129320324472</v>
+        <v>0.1598131543643804</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>72583</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57100</v>
+        <v>56457</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90733</v>
+        <v>90313</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1979686526853031</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1557379781243385</v>
+        <v>0.1539860158438941</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2474723968175725</v>
+        <v>0.2463267169063128</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -2196,19 +2196,19 @@
         <v>39795</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28588</v>
+        <v>28866</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52344</v>
+        <v>54782</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1809532067559696</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1299928895566992</v>
+        <v>0.1312562978647107</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2380147285939731</v>
+        <v>0.2490971138533911</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>96</v>
@@ -2217,19 +2217,19 @@
         <v>112378</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>92966</v>
+        <v>92752</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>135419</v>
+        <v>133630</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1915889943773948</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1584938986730276</v>
+        <v>0.1581294442166791</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2308694253882874</v>
+        <v>0.2278206264795714</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>86254</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68815</v>
+        <v>69336</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103377</v>
+        <v>102977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2352564076446146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1876923021856694</v>
+        <v>0.1891135483537517</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2819591381168456</v>
+        <v>0.280868077465147</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2267,19 +2267,19 @@
         <v>42063</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30936</v>
+        <v>29868</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55610</v>
+        <v>55481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1912640565136766</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1406668460265131</v>
+        <v>0.1358105959932971</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2528628688156608</v>
+        <v>0.2522777248734659</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -2288,19 +2288,19 @@
         <v>128317</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108620</v>
+        <v>108220</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>151620</v>
+        <v>151933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2187622076370159</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1851817438928141</v>
+        <v>0.1844987678677128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2584896994915685</v>
+        <v>0.259023853307248</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>105746</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89246</v>
+        <v>89259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124678</v>
+        <v>124790</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2884208022121873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2434173635731148</v>
+        <v>0.243450850069062</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3400552253527092</v>
+        <v>0.3403628189908596</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -2338,19 +2338,19 @@
         <v>74215</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>60140</v>
+        <v>60307</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88190</v>
+        <v>88472</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3374619156302167</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2734612982308297</v>
+        <v>0.2742192943714634</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4010092290452955</v>
+        <v>0.4022916937853191</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>159</v>
@@ -2359,19 +2359,19 @@
         <v>179961</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>157598</v>
+        <v>156191</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>206337</v>
+        <v>203272</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3068079516260646</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2686813013027251</v>
+        <v>0.2662823549689564</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3517746450320481</v>
+        <v>0.3465498829164159</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>26873</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18373</v>
+        <v>18248</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38569</v>
+        <v>38085</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1730854118102035</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1183357087656983</v>
+        <v>0.117534613334025</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2484200987462339</v>
+        <v>0.2452988083407203</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -2484,19 +2484,19 @@
         <v>12220</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6946</v>
+        <v>6617</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19182</v>
+        <v>18862</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.177985436033979</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1011681153742208</v>
+        <v>0.09638156125350622</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2793775280899961</v>
+        <v>0.2747182895828011</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -2505,19 +2505,19 @@
         <v>39093</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29279</v>
+        <v>28700</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>52903</v>
+        <v>52471</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1745878598771495</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1307591867502298</v>
+        <v>0.1281728944533234</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2362617440872225</v>
+        <v>0.2343318330314159</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>14326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8326</v>
+        <v>9024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21907</v>
+        <v>23608</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09227300376928582</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0536273800913407</v>
+        <v>0.05812044722183133</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.14110051170001</v>
+        <v>0.1520563104605472</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2555,19 +2555,19 @@
         <v>11315</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5596</v>
+        <v>5441</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19399</v>
+        <v>18656</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1648057653740278</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08150840311620651</v>
+        <v>0.07924785208581937</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2825417185379889</v>
+        <v>0.2717207177070395</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>24</v>
@@ -2576,19 +2576,19 @@
         <v>25641</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17354</v>
+        <v>17302</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37071</v>
+        <v>36348</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1145130382031015</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07750361303027284</v>
+        <v>0.07726780387531197</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.165556209982585</v>
+        <v>0.1623261775439572</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>28070</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19453</v>
+        <v>19322</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38666</v>
+        <v>38852</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1807966048036668</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1252915355239812</v>
+        <v>0.1244516340278098</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2490391429596075</v>
+        <v>0.2502368594356805</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2626,19 +2626,19 @@
         <v>10861</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6119</v>
+        <v>5448</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19342</v>
+        <v>18454</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1581879551828331</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0891202166544354</v>
+        <v>0.07934507482922439</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2817143893186353</v>
+        <v>0.2687789804113632</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -2647,19 +2647,19 @@
         <v>38931</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27589</v>
+        <v>28335</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>51796</v>
+        <v>52811</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.173864328478529</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1232090804820299</v>
+        <v>0.1265423141522313</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2313181614580046</v>
+        <v>0.2358510789524695</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>36694</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27072</v>
+        <v>26929</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50285</v>
+        <v>49333</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2363377173602807</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1743686327545474</v>
+        <v>0.1734426313435326</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3238795242602278</v>
+        <v>0.3177485864346119</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2697,19 +2697,19 @@
         <v>12619</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6890</v>
+        <v>7101</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21289</v>
+        <v>21172</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1838019011539133</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1003495831051652</v>
+        <v>0.1034203860431156</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3100770976117919</v>
+        <v>0.3083657815622938</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -2718,19 +2718,19 @@
         <v>49313</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>37735</v>
+        <v>36112</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>64688</v>
+        <v>63112</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2202291570960892</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1685210647249303</v>
+        <v>0.1612741479607532</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2888922014538673</v>
+        <v>0.2818536766319802</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>49296</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38284</v>
+        <v>38560</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62511</v>
+        <v>61086</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3175072622565632</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.246584103287279</v>
+        <v>0.2483564997790151</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.402621696691749</v>
+        <v>0.3934480780086635</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -2768,19 +2768,19 @@
         <v>21642</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13706</v>
+        <v>14021</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29518</v>
+        <v>30386</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3152189422552469</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1996334851745473</v>
+        <v>0.2042183673727754</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4299268335441397</v>
+        <v>0.4425776102293143</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>66</v>
@@ -2789,19 +2789,19 @@
         <v>70938</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>57477</v>
+        <v>57188</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>86020</v>
+        <v>86962</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3168056163451308</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2566879835586838</v>
+        <v>0.2553965068968059</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3841595794910651</v>
+        <v>0.3883663310029652</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>256462</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>226266</v>
+        <v>226413</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>288483</v>
+        <v>285437</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1826742982235272</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1611659178069386</v>
+        <v>0.1612708571650379</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2054827520413688</v>
+        <v>0.2033128077791468</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>140</v>
@@ -2914,19 +2914,19 @@
         <v>152700</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131275</v>
+        <v>131550</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>178124</v>
+        <v>177082</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1630847326185589</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1402024008248931</v>
+        <v>0.1404960959719152</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.190237975551278</v>
+        <v>0.189124243977544</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>383</v>
@@ -2935,19 +2935,19 @@
         <v>409162</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>371799</v>
+        <v>367875</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>449832</v>
+        <v>450266</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1748366080599253</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1588713714779353</v>
+        <v>0.1571946748030418</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1922151209990572</v>
+        <v>0.1924002741204243</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>160687</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>135442</v>
+        <v>137690</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>186612</v>
+        <v>186671</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1144548078584467</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09647319427847319</v>
+        <v>0.09807503722076667</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1329214626029331</v>
+        <v>0.1329634959496605</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>105</v>
@@ -2985,19 +2985,19 @@
         <v>111852</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>92261</v>
+        <v>93180</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>133691</v>
+        <v>133085</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1194586343393979</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09853530329562694</v>
+        <v>0.09951690439007294</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1427829118419433</v>
+        <v>0.1421355150078922</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -3006,19 +3006,19 @@
         <v>272539</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>242528</v>
+        <v>241368</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>308103</v>
+        <v>306399</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1164568145583898</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1036330553400105</v>
+        <v>0.1031375319658056</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1316537978122559</v>
+        <v>0.130925594353183</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>278770</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>250505</v>
+        <v>249252</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>313171</v>
+        <v>310406</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1985637834248853</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.178431338502697</v>
+        <v>0.1775385628911048</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2230671051567189</v>
+        <v>0.2210978872676871</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>179</v>
@@ -3056,19 +3056,19 @@
         <v>194333</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>169049</v>
+        <v>171241</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>224547</v>
+        <v>219994</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2075485363797808</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1805449671276238</v>
+        <v>0.1828864897772365</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2398174587200165</v>
+        <v>0.2349545663262821</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>447</v>
@@ -3077,19 +3077,19 @@
         <v>473102</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>434906</v>
+        <v>433906</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>510188</v>
+        <v>514804</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2021585394943674</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1858369474374981</v>
+        <v>0.185409777497585</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2180052835477455</v>
+        <v>0.2199778469245933</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>299887</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>269665</v>
+        <v>271606</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>332889</v>
+        <v>332479</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2136055324492827</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1920787393872313</v>
+        <v>0.1934613067061511</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2371120588999847</v>
+        <v>0.2368201686222956</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>165</v>
@@ -3127,19 +3127,19 @@
         <v>177644</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154166</v>
+        <v>153307</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>202933</v>
+        <v>201845</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1897252844238993</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1646499362652648</v>
+        <v>0.1637329767814114</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2167340705990429</v>
+        <v>0.2155722479910865</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>447</v>
@@ -3148,19 +3148,19 @@
         <v>477532</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>440960</v>
+        <v>437611</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>522789</v>
+        <v>517638</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2040511610646793</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1884239888195318</v>
+        <v>0.1869930393178585</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.223389724781709</v>
+        <v>0.2211888506666732</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>408125</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>374880</v>
+        <v>372472</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>446002</v>
+        <v>444088</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2907015780438581</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2670217198093948</v>
+        <v>0.2653064073221189</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3176808816084875</v>
+        <v>0.3163178545979031</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>275</v>
@@ -3198,19 +3198,19 @@
         <v>299795</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>268386</v>
+        <v>272133</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>329972</v>
+        <v>332297</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3201828122383631</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2866381756442651</v>
+        <v>0.2906393515718308</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3524118248820395</v>
+        <v>0.3548956914260733</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>650</v>
@@ -3219,19 +3219,19 @@
         <v>707920</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>661444</v>
+        <v>660619</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>754321</v>
+        <v>762008</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3024968768226382</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2826376541259176</v>
+        <v>0.2822852353748734</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3223244637740394</v>
+        <v>0.3256090965279333</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>21153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14187</v>
+        <v>13737</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29914</v>
+        <v>30346</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.267389476789805</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1793322790822328</v>
+        <v>0.1736459283603631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3781421733327894</v>
+        <v>0.3835997527825772</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3585,19 +3585,19 @@
         <v>9233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4299</v>
+        <v>4757</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16010</v>
+        <v>15834</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1005181273094155</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04679879483873551</v>
+        <v>0.05179042509766583</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1742917992785988</v>
+        <v>0.1723784568165758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -3606,19 +3606,19 @@
         <v>30386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21467</v>
+        <v>20873</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41791</v>
+        <v>40605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1777335467463643</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1255618458471117</v>
+        <v>0.1220914631550944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2444405608746889</v>
+        <v>0.2375046108997305</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>10544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5339</v>
+        <v>5122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18873</v>
+        <v>17604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1332793443992221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06748510803942788</v>
+        <v>0.06474437328107464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2385683054963663</v>
+        <v>0.2225239712528363</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3656,19 +3656,19 @@
         <v>11931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6435</v>
+        <v>7108</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18979</v>
+        <v>18719</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1298926126205911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07005173042073036</v>
+        <v>0.07738450335340034</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2066156368791608</v>
+        <v>0.2037864097719631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -3677,19 +3677,19 @@
         <v>22475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15250</v>
+        <v>15293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33513</v>
+        <v>31229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1314597355306756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08920156284760707</v>
+        <v>0.08945414054935882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.196022634265318</v>
+        <v>0.1826626109430984</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>19822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13195</v>
+        <v>12749</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28919</v>
+        <v>29452</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2505631001099637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1667992163565542</v>
+        <v>0.1611595885792786</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3655544312497541</v>
+        <v>0.372292319346418</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -3727,19 +3727,19 @@
         <v>21880</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14731</v>
+        <v>14493</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30585</v>
+        <v>29969</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2381993943070251</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1603756773721204</v>
+        <v>0.1577812000900119</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3329727341244251</v>
+        <v>0.3262633911739364</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -3748,19 +3748,19 @@
         <v>41702</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31225</v>
+        <v>31428</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54151</v>
+        <v>54554</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2439203807576149</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1826434182445604</v>
+        <v>0.1838255870735594</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3167403148020352</v>
+        <v>0.3190962298149844</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>12259</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6894</v>
+        <v>6934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19168</v>
+        <v>19662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1549644250239507</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08714363701330907</v>
+        <v>0.08764866947616615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2422973646284033</v>
+        <v>0.248545076190214</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3798,19 +3798,19 @@
         <v>21839</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14595</v>
+        <v>14481</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30714</v>
+        <v>30450</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2377560481902599</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1588869080226588</v>
+        <v>0.1576468255512352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3343696134361492</v>
+        <v>0.3315020540934478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3819,19 +3819,19 @@
         <v>34098</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23960</v>
+        <v>25179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46025</v>
+        <v>45731</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1994463567509655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.140148086155806</v>
+        <v>0.1472787572067065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2692082440184808</v>
+        <v>0.2674909180889349</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>15332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9127</v>
+        <v>8644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23295</v>
+        <v>23662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1938036536770584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1153677381820008</v>
+        <v>0.109268331211989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2944616212329931</v>
+        <v>0.2991115799209957</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -3869,19 +3869,19 @@
         <v>26972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19461</v>
+        <v>19667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36581</v>
+        <v>37563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2936338175727085</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2118617928155082</v>
+        <v>0.214110609762095</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3982508457522077</v>
+        <v>0.4089431269459139</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -3890,19 +3890,19 @@
         <v>42303</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32460</v>
+        <v>31519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54413</v>
+        <v>55121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2474399802143796</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1898620390103892</v>
+        <v>0.1843633095923579</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3182737951575017</v>
+        <v>0.3224132660400493</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>71249</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57514</v>
+        <v>56279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88033</v>
+        <v>87356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.20700928598752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1671019122741162</v>
+        <v>0.1635143666635662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2557734103901412</v>
+        <v>0.2538062896154923</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -4015,19 +4015,19 @@
         <v>35435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25709</v>
+        <v>25987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47158</v>
+        <v>47295</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1294597399634572</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09392460354273575</v>
+        <v>0.09494131087612738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1722869019817068</v>
+        <v>0.1727870585283875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -4036,19 +4036,19 @@
         <v>106685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88533</v>
+        <v>88823</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125908</v>
+        <v>127365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1726566100205207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.143279507667441</v>
+        <v>0.1437487732617996</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2037665638631141</v>
+        <v>0.2061250350138942</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>66047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51678</v>
+        <v>51077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81601</v>
+        <v>81649</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1918947086956707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1501465281911581</v>
+        <v>0.1484010558921922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2370845252888626</v>
+        <v>0.2372238133092585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -4086,19 +4086,19 @@
         <v>34268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25196</v>
+        <v>24487</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46464</v>
+        <v>45041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1251957814373761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09205237758324583</v>
+        <v>0.08946308861422081</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1697509125663612</v>
+        <v>0.1645529259568547</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -4107,19 +4107,19 @@
         <v>100316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83561</v>
+        <v>83539</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>118977</v>
+        <v>121186</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1623486087773077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1352337129014123</v>
+        <v>0.1351982971917753</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1925499688220289</v>
+        <v>0.1961252239500203</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>69885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54655</v>
+        <v>56209</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85437</v>
+        <v>85176</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2030456695965366</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1587964986694943</v>
+        <v>0.1633090614485703</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2482294411658104</v>
+        <v>0.2474720359609626</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -4157,19 +4157,19 @@
         <v>68747</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55749</v>
+        <v>56092</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>83520</v>
+        <v>84092</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2511601156479344</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2036748160446421</v>
+        <v>0.2049282978376522</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3051337295695035</v>
+        <v>0.3072245739451095</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -4178,19 +4178,19 @@
         <v>138632</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>120399</v>
+        <v>118680</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>160818</v>
+        <v>161458</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2243592692148048</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1948506797772384</v>
+        <v>0.1920689553780625</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2602637665539455</v>
+        <v>0.2613005808140328</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>65194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51869</v>
+        <v>51127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80598</v>
+        <v>81048</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1894160723087872</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1507015638800049</v>
+        <v>0.1485444101363429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.234170610235189</v>
+        <v>0.2354786044443671</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4228,19 +4228,19 @@
         <v>45961</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34624</v>
+        <v>34257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58378</v>
+        <v>58997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.167913309326672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1264944334386525</v>
+        <v>0.1251565788292935</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2132785028653207</v>
+        <v>0.2155394410602799</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -4249,19 +4249,19 @@
         <v>111155</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93148</v>
+        <v>93151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129938</v>
+        <v>131990</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1798908398994242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1507483794003495</v>
+        <v>0.1507538841347667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2102895206166225</v>
+        <v>0.2136096698818564</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>71809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57908</v>
+        <v>57884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89011</v>
+        <v>88622</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2086342634114855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1682453757386174</v>
+        <v>0.1681755543472558</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2586128492194185</v>
+        <v>0.25748323293938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -4299,19 +4299,19 @@
         <v>89306</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>75597</v>
+        <v>75600</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105076</v>
+        <v>104241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3262710536245603</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.276186314804839</v>
+        <v>0.2762001659079544</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3838862681507495</v>
+        <v>0.380837201186305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>159</v>
@@ -4320,19 +4320,19 @@
         <v>161115</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>138590</v>
+        <v>139272</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>182010</v>
+        <v>182192</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2607446720879426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2242904512364995</v>
+        <v>0.2253945246820485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.294560620828677</v>
+        <v>0.2948550809504883</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>93347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76137</v>
+        <v>76429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111207</v>
+        <v>112580</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.203110275792563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1656641787248609</v>
+        <v>0.1663000011045167</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2419709001989335</v>
+        <v>0.2449585888917645</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -4445,19 +4445,19 @@
         <v>46618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35418</v>
+        <v>35470</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61012</v>
+        <v>59688</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.146867534831654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1115825634779104</v>
+        <v>0.1117471614516471</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1922155535917519</v>
+        <v>0.1880434167391123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -4466,19 +4466,19 @@
         <v>139965</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117725</v>
+        <v>119984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161886</v>
+        <v>162318</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1801344943611695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1515125042238183</v>
+        <v>0.1544193858657643</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2083474582751431</v>
+        <v>0.2089037885293182</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>72425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58022</v>
+        <v>56890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89564</v>
+        <v>88952</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1575865179755222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1262468278292364</v>
+        <v>0.1237849073225487</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1948791848416742</v>
+        <v>0.1935470124402064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -4516,19 +4516,19 @@
         <v>51930</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40694</v>
+        <v>38873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67051</v>
+        <v>66598</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1636044789315866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1282050182981242</v>
+        <v>0.1224666909413882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2112421762870003</v>
+        <v>0.2098149730914414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -4537,19 +4537,19 @@
         <v>124355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>105460</v>
+        <v>105386</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148115</v>
+        <v>145310</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1600449215530665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1357266869527137</v>
+        <v>0.135632056862596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1906233090222965</v>
+        <v>0.1870140353975911</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>94524</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78904</v>
+        <v>77562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>113180</v>
+        <v>110340</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2056714459042816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1716843821971439</v>
+        <v>0.1687632439884275</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2462640109906209</v>
+        <v>0.2400839855361464</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -4587,19 +4587,19 @@
         <v>77318</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63169</v>
+        <v>62978</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93207</v>
+        <v>93329</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.243586187680862</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1990110551332606</v>
+        <v>0.1984111259701726</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2936442282415446</v>
+        <v>0.2940297855039915</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>168</v>
@@ -4608,19 +4608,19 @@
         <v>171842</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147355</v>
+        <v>147009</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>194618</v>
+        <v>196339</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2211600370576164</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1896459452330278</v>
+        <v>0.1892008730237771</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2504727900168086</v>
+        <v>0.2526882632520049</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>101930</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84883</v>
+        <v>86586</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121460</v>
+        <v>121325</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2217863211501625</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1846946644286692</v>
+        <v>0.1883997801542316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.264279657780701</v>
+        <v>0.2639859104241054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -4658,19 +4658,19 @@
         <v>61716</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48779</v>
+        <v>49314</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75166</v>
+        <v>77456</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1944330328359678</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1536750692910283</v>
+        <v>0.1553619082827827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.236807252915214</v>
+        <v>0.2440220945521019</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -4679,19 +4679,19 @@
         <v>163646</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142249</v>
+        <v>141249</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189024</v>
+        <v>187703</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2106122004903313</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.183074433316596</v>
+        <v>0.1817869991042824</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2432741074312077</v>
+        <v>0.2415737591412933</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>97362</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>79974</v>
+        <v>80294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>115646</v>
+        <v>117215</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2118454391774707</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1740114196150289</v>
+        <v>0.1747094819170256</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2516290290653383</v>
+        <v>0.2550443523972339</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -4729,19 +4729,19 @@
         <v>79832</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65006</v>
+        <v>64067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95039</v>
+        <v>94662</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2515087657199296</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2047992043413974</v>
+        <v>0.2018394966527476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2994179064147194</v>
+        <v>0.2982296474154952</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -4750,19 +4750,19 @@
         <v>177194</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>154474</v>
+        <v>154306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>201268</v>
+        <v>200878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2280483465378163</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1988083997572062</v>
+        <v>0.1985918085445827</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2590318628950496</v>
+        <v>0.2585299123729783</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>76117</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61018</v>
+        <v>60142</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92806</v>
+        <v>92788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2069913234012705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1659321516640108</v>
+        <v>0.1635488962512282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2523760787708401</v>
+        <v>0.2523283694594691</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -4875,19 +4875,19 @@
         <v>53221</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40920</v>
+        <v>41275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67123</v>
+        <v>66686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2189088968779868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.168314687662547</v>
+        <v>0.1697727903510057</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2760916712686332</v>
+        <v>0.2742961610868799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -4896,19 +4896,19 @@
         <v>129337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111953</v>
+        <v>110220</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>152609</v>
+        <v>152152</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2117345419385799</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1832759074448195</v>
+        <v>0.1804374638487323</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2498316717575328</v>
+        <v>0.2490833519650038</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>61851</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47158</v>
+        <v>47494</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>77040</v>
+        <v>76598</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1681988155724608</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1282420399763485</v>
+        <v>0.1291548155353242</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2095019368817384</v>
+        <v>0.2083011637645195</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -4946,19 +4946,19 @@
         <v>32849</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21918</v>
+        <v>23254</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>44339</v>
+        <v>44694</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.135117390619275</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0901523251342418</v>
+        <v>0.09564905142501638</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.182378403253048</v>
+        <v>0.1838384511035209</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>86</v>
@@ -4967,19 +4967,19 @@
         <v>94701</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>77419</v>
+        <v>77378</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>115997</v>
+        <v>113231</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1550323410057108</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1267411913831227</v>
+        <v>0.1266731174092242</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1898955184965779</v>
+        <v>0.1853678574244664</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>76622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>62157</v>
+        <v>61165</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95049</v>
+        <v>94115</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2083648871558876</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.169031088572942</v>
+        <v>0.1663318439134267</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2584776527914291</v>
+        <v>0.2559368573960222</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -5017,19 +5017,19 @@
         <v>49154</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37899</v>
+        <v>36472</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63136</v>
+        <v>61250</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2021807419505222</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1558886740787032</v>
+        <v>0.1500183291910335</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2596919234346374</v>
+        <v>0.2519373285493459</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>115</v>
@@ -5038,19 +5038,19 @@
         <v>125775</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103393</v>
+        <v>103751</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>146465</v>
+        <v>145430</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2059035847579783</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1692613840609604</v>
+        <v>0.1698479177298682</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2397734396762458</v>
+        <v>0.2380795271046878</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>87955</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71167</v>
+        <v>71566</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104996</v>
+        <v>104866</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2391836633928938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1935313547590453</v>
+        <v>0.1946156889627317</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2855271309620498</v>
+        <v>0.2851715365494095</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -5088,19 +5088,19 @@
         <v>46622</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34138</v>
+        <v>35980</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59951</v>
+        <v>60426</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1917673007919768</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1404168008794005</v>
+        <v>0.1479928642135609</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2465909435241881</v>
+        <v>0.248545855507223</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>123</v>
@@ -5109,19 +5109,19 @@
         <v>134577</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114794</v>
+        <v>114099</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>155286</v>
+        <v>155075</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2203118544210543</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1879265700620851</v>
+        <v>0.1867883351570608</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2542148947699757</v>
+        <v>0.2538698410092294</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>65184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50598</v>
+        <v>52176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81627</v>
+        <v>83167</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1772613104774872</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1375971834473602</v>
+        <v>0.141887883539602</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2219761598506661</v>
+        <v>0.226164557399004</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -5159,19 +5159,19 @@
         <v>61272</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48142</v>
+        <v>48544</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77132</v>
+        <v>76846</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2520256697602392</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.198018110986801</v>
+        <v>0.1996722109550932</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.317260021232992</v>
+        <v>0.3160839230624847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -5180,19 +5180,19 @@
         <v>126456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>108483</v>
+        <v>106654</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>151377</v>
+        <v>149427</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2070176778766767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1775939984988818</v>
+        <v>0.1746011733247364</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2478159215857283</v>
+        <v>0.244623064096817</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>39915</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29560</v>
+        <v>29474</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52969</v>
+        <v>52465</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2408470718747568</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1783685757822684</v>
+        <v>0.1778483490922977</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3196161882420218</v>
+        <v>0.316574521714353</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -5305,19 +5305,19 @@
         <v>16633</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9533</v>
+        <v>9963</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25745</v>
+        <v>25290</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1570927847475926</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09003571557574054</v>
+        <v>0.09409708136666003</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2431517750880901</v>
+        <v>0.2388570121219101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>49</v>
@@ -5326,19 +5326,19 @@
         <v>56547</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42604</v>
+        <v>43393</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>72235</v>
+        <v>72296</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2081974568844481</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1568591841575879</v>
+        <v>0.1597656748799224</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2659555589893455</v>
+        <v>0.2661794040067055</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>17824</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10932</v>
+        <v>10354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27834</v>
+        <v>27598</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1075526323430405</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06596586543657938</v>
+        <v>0.06247714259137847</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1679491139674777</v>
+        <v>0.1665303356437044</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -5376,19 +5376,19 @@
         <v>22339</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14294</v>
+        <v>14443</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32305</v>
+        <v>33214</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.210981437399762</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1350036901586519</v>
+        <v>0.1364087028513568</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3051167987931581</v>
+        <v>0.3136932694933042</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -5397,19 +5397,19 @@
         <v>40163</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>29710</v>
+        <v>28765</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54208</v>
+        <v>55256</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1478718897785732</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1093861748282689</v>
+        <v>0.1059063797599707</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1995842242984952</v>
+        <v>0.2034441926775208</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>44211</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33002</v>
+        <v>32765</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>57355</v>
+        <v>56423</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2667694533856725</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1991333012678826</v>
+        <v>0.1977032539621833</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3460854435273668</v>
+        <v>0.3404625055333502</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -5447,19 +5447,19 @@
         <v>27053</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17208</v>
+        <v>18666</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37318</v>
+        <v>38159</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2555091040314503</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1625213325330821</v>
+        <v>0.1762972653492847</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.352457931668448</v>
+        <v>0.3603995801568408</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -5468,19 +5468,19 @@
         <v>71264</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>56768</v>
+        <v>56420</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>88186</v>
+        <v>87564</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.262379874252684</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2090100084846241</v>
+        <v>0.2077263764076806</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3246844196480762</v>
+        <v>0.3223952753686208</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>30207</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20062</v>
+        <v>21343</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41135</v>
+        <v>41988</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1822713693738228</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1210552092712692</v>
+        <v>0.1287870360573659</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2482132301599222</v>
+        <v>0.253355605764058</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -5518,19 +5518,19 @@
         <v>17568</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10805</v>
+        <v>10243</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26988</v>
+        <v>26524</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1659245686445628</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1020544085087965</v>
+        <v>0.09674098669723362</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.254893021416258</v>
+        <v>0.250516151439493</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -5539,19 +5539,19 @@
         <v>47775</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35448</v>
+        <v>35182</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>60937</v>
+        <v>62268</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1758989582598306</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1305134914118016</v>
+        <v>0.1295349543436793</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.224357855096833</v>
+        <v>0.2292606674646645</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>33569</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23907</v>
+        <v>23598</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46003</v>
+        <v>45880</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2025594730227074</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1442546652495146</v>
+        <v>0.1423941396427973</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2775865535497379</v>
+        <v>0.2768454919873418</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -5589,19 +5589,19 @@
         <v>22287</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13768</v>
+        <v>14575</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32996</v>
+        <v>31760</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2104921051766323</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1300341069901889</v>
+        <v>0.1376559069970438</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3116412670683614</v>
+        <v>0.2999608510135066</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>50</v>
@@ -5610,19 +5610,19 @@
         <v>55856</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42010</v>
+        <v>43874</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>71450</v>
+        <v>70184</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2056518208244642</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1546715480663574</v>
+        <v>0.1615351368952336</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2630647848457713</v>
+        <v>0.2584060626580266</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>301781</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>272319</v>
+        <v>272458</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>333851</v>
+        <v>336157</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2130713319345024</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1922700440385988</v>
+        <v>0.1923677230523563</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2357142126312025</v>
+        <v>0.2373425811187002</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>157</v>
@@ -5735,19 +5735,19 @@
         <v>161140</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>138315</v>
+        <v>139667</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>187021</v>
+        <v>187569</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1561457724481153</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1340288326702015</v>
+        <v>0.1353387619038608</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1812255119073624</v>
+        <v>0.1817558287526383</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>437</v>
@@ -5756,19 +5756,19 @@
         <v>462920</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>425996</v>
+        <v>419870</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>505744</v>
+        <v>500889</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.189076849817932</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1739955700934498</v>
+        <v>0.171493049752512</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2065680676927383</v>
+        <v>0.2045851048203299</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>228692</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>201984</v>
+        <v>202606</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>258556</v>
+        <v>260166</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1614669270736227</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1426098005949523</v>
+        <v>0.1430491176038756</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1825528618963</v>
+        <v>0.183689660949166</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>150</v>
@@ -5806,19 +5806,19 @@
         <v>153318</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>132283</v>
+        <v>132741</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>177771</v>
+        <v>177602</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.14856622875863</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1281836729789456</v>
+        <v>0.1286271006021251</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1722614927547553</v>
+        <v>0.1720984118629241</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>362</v>
@@ -5827,19 +5827,19 @@
         <v>382009</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>347026</v>
+        <v>345430</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>419769</v>
+        <v>417614</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1560292014227332</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1417406924719918</v>
+        <v>0.1410886619554914</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1714519975065607</v>
+        <v>0.1705718321959747</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>305064</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>272317</v>
+        <v>274469</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>336541</v>
+        <v>339524</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2153891836347424</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1922683734452902</v>
+        <v>0.1937881706465502</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2376137362775353</v>
+        <v>0.2397199476293686</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>239</v>
@@ -5877,19 +5877,19 @@
         <v>244151</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>217795</v>
+        <v>218509</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>273092</v>
+        <v>271994</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2365843949763586</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2110451521156318</v>
+        <v>0.2117368135208568</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2646287992995301</v>
+        <v>0.2635642514520545</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>521</v>
@@ -5898,19 +5898,19 @@
         <v>549214</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>506585</v>
+        <v>505567</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>594010</v>
+        <v>592773</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2243230988053953</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2069113842534716</v>
+        <v>0.2064957268813473</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2426195319268839</v>
+        <v>0.2421143087698438</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>297545</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>265086</v>
+        <v>265453</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>329769</v>
+        <v>330778</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2100809350304291</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1871631174877019</v>
+        <v>0.187421947521269</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2328324710298353</v>
+        <v>0.2335443632742928</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>189</v>
@@ -5948,19 +5948,19 @@
         <v>193705</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>170547</v>
+        <v>169362</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>220224</v>
+        <v>220380</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.187702315106042</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1652616340663007</v>
+        <v>0.1641134828529511</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2133992097669931</v>
+        <v>0.2135498276065927</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>470</v>
@@ -5969,19 +5969,19 @@
         <v>491251</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>453090</v>
+        <v>448968</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>532000</v>
+        <v>534496</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2006482056832957</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1850615433118813</v>
+        <v>0.1833779944981331</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2172922014407004</v>
+        <v>0.2183116508225564</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>283256</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>253440</v>
+        <v>250096</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>317661</v>
+        <v>315585</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1999916223267034</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1789405992620638</v>
+        <v>0.1765794232540442</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2242833055492657</v>
+        <v>0.2228176902379368</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>273</v>
@@ -6019,19 +6019,19 @@
         <v>279668</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>252052</v>
+        <v>253613</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>311734</v>
+        <v>308298</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2710012887108542</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2442411271036911</v>
+        <v>0.2457531708157629</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3020732548418006</v>
+        <v>0.2987436636848552</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>535</v>
@@ -6040,19 +6040,19 @@
         <v>562924</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>522717</v>
+        <v>522080</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>605402</v>
+        <v>605335</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2299226442706437</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2135003340623783</v>
+        <v>0.2132403325279264</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2472726040570278</v>
+        <v>0.2472452370892161</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>11871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4080</v>
+        <v>3674</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21177</v>
+        <v>21241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3943200317671888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1355131608172744</v>
+        <v>0.1220283592815712</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7034288773983883</v>
+        <v>0.7055688702636297</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10645</v>
+        <v>9794</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1050976420552981</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3779315612446757</v>
+        <v>0.3477109641282789</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6427,19 +6427,19 @@
         <v>14831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5484</v>
+        <v>7063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26698</v>
+        <v>27194</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2545181157116424</v>
+        <v>0.2545181157116425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09410531892992453</v>
+        <v>0.1212115351406233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4581677180784462</v>
+        <v>0.4666825282056842</v>
       </c>
     </row>
     <row r="5">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13364</v>
+        <v>13582</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1382416101165224</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4439262464969879</v>
+        <v>0.4511422502483759</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -6477,19 +6477,19 @@
         <v>4944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11326</v>
+        <v>10852</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1755155216845585</v>
+        <v>0.1755155216845586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04199446065438433</v>
+        <v>0.04231995169986408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4021079705192174</v>
+        <v>0.3852809121627629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -6498,19 +6498,19 @@
         <v>9105</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3576</v>
+        <v>3831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17885</v>
+        <v>18521</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1562587638413338</v>
+        <v>0.1562587638413339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06136475636872454</v>
+        <v>0.06574184476592758</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3069326317174941</v>
+        <v>0.3178350049694875</v>
       </c>
     </row>
     <row r="6">
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7278</v>
+        <v>7153</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04574823374070327</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2417538502551012</v>
+        <v>0.2376175496734974</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -6548,19 +6548,19 @@
         <v>9323</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3462</v>
+        <v>4158</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15659</v>
+        <v>16066</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.331000217839973</v>
+        <v>0.3310002178399729</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1229034395058257</v>
+        <v>0.1476029371825208</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5559248065586281</v>
+        <v>0.5703674871951103</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -6569,19 +6569,19 @@
         <v>10700</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4357</v>
+        <v>5022</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19797</v>
+        <v>20869</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1836309681149315</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07476669979094906</v>
+        <v>0.08618990312033831</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3397337022436251</v>
+        <v>0.3581454086191361</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>4730</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1009</v>
+        <v>1129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12265</v>
+        <v>13010</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1571089564597718</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03350109327363231</v>
+        <v>0.03748553556260545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4074017717957334</v>
+        <v>0.4321531160628274</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6622,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13654</v>
+        <v>14247</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1691243302187634</v>
+        <v>0.1691243302187633</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4847373444407937</v>
+        <v>0.505810086192842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -6640,19 +6640,19 @@
         <v>9493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3281</v>
+        <v>3186</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20191</v>
+        <v>19486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1629168480109891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05629952725992346</v>
+        <v>0.05466844972419809</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.346495806982184</v>
+        <v>0.3343988932198175</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>7965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18220</v>
+        <v>18216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2645811679158136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04382464820736985</v>
+        <v>0.04360313140179221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6052247422796655</v>
+        <v>0.605095424890974</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -6690,19 +6690,19 @@
         <v>6176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1324</v>
+        <v>1987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13357</v>
+        <v>12765</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2192622882014071</v>
+        <v>0.219262288201407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04700645505984807</v>
+        <v>0.07054442943638782</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4741951781045905</v>
+        <v>0.4532001125191769</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -6711,19 +6711,19 @@
         <v>14141</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6415</v>
+        <v>6328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26529</v>
+        <v>26615</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2426753043211031</v>
+        <v>0.2426753043211032</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1100871462898962</v>
+        <v>0.1085917816980564</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4552741173030794</v>
+        <v>0.456740339690469</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>40301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24683</v>
+        <v>26175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54374</v>
+        <v>56075</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3399791957793642</v>
+        <v>0.3399791957793643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2082238157617853</v>
+        <v>0.2208060436157711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4586948714445889</v>
+        <v>0.4730461902454848</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -6836,19 +6836,19 @@
         <v>20353</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12831</v>
+        <v>12469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29971</v>
+        <v>30876</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2196697182258755</v>
+        <v>0.2196697182258754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1384879398805614</v>
+        <v>0.1345739998242785</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3234797430777958</v>
+        <v>0.3332483137065774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -6857,19 +6857,19 @@
         <v>60654</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46348</v>
+        <v>45540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80372</v>
+        <v>79410</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2871985118905887</v>
+        <v>0.2871985118905886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2194574209144121</v>
+        <v>0.2156313825833594</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3805629758238052</v>
+        <v>0.3760079733730002</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>18803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9467</v>
+        <v>9417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30177</v>
+        <v>30863</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1586178785462954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07986244767810534</v>
+        <v>0.07944185253696393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2545719145664073</v>
+        <v>0.2603590767856509</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -6907,19 +6907,19 @@
         <v>9952</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5231</v>
+        <v>5106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17254</v>
+        <v>17120</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.107411276067709</v>
+        <v>0.1074112760677089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05645379317024416</v>
+        <v>0.05511038651614143</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1862191038083203</v>
+        <v>0.1847806075738009</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -6928,19 +6928,19 @@
         <v>28754</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17390</v>
+        <v>18224</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42239</v>
+        <v>42477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1361531521307156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0823431164341611</v>
+        <v>0.08629335018137053</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2000042023720652</v>
+        <v>0.2011292555343874</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>32484</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21005</v>
+        <v>20632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46428</v>
+        <v>46361</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2740306938429952</v>
+        <v>0.2740306938429953</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1771973666536725</v>
+        <v>0.1740527062916417</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3916648058980803</v>
+        <v>0.3910976163516072</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -6978,19 +6978,19 @@
         <v>26777</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18583</v>
+        <v>18501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36580</v>
+        <v>35876</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2890011862979282</v>
+        <v>0.2890011862979281</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2005725423905194</v>
+        <v>0.1996844582221377</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3948103702518254</v>
+        <v>0.387216590559141</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -6999,19 +6999,19 @@
         <v>59260</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45245</v>
+        <v>43883</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76248</v>
+        <v>74445</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.280598362874488</v>
+        <v>0.2805983628744879</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2142372014967517</v>
+        <v>0.2077851019047292</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3610353433767353</v>
+        <v>0.3524968919164517</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>9939</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3865</v>
+        <v>4030</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20776</v>
+        <v>20721</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08384072566128523</v>
+        <v>0.08384072566128524</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03260055310376107</v>
+        <v>0.03399556185659854</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1752646924429496</v>
+        <v>0.1747987006387602</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -7049,19 +7049,19 @@
         <v>16475</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10526</v>
+        <v>9960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24591</v>
+        <v>24852</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1778142428305893</v>
+        <v>0.1778142428305892</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1136106168261132</v>
+        <v>0.1075022230542643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2654101690411964</v>
+        <v>0.2682328671045623</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -7070,19 +7070,19 @@
         <v>26413</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17606</v>
+        <v>16815</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40114</v>
+        <v>38164</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1250676231966377</v>
+        <v>0.1250676231966376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08336438267009866</v>
+        <v>0.07961941332360521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1899389961343997</v>
+        <v>0.1807077283789227</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>17014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8132</v>
+        <v>7593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33753</v>
+        <v>31784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1435315061700598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06860346716645106</v>
+        <v>0.06405058111247697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2847389169119465</v>
+        <v>0.2681250140645572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -7120,19 +7120,19 @@
         <v>19096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12007</v>
+        <v>12366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28725</v>
+        <v>28286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.206103576577898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1295953014639293</v>
+        <v>0.1334666968530653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3100333444432796</v>
+        <v>0.3052950747207284</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -7141,19 +7141,19 @@
         <v>36110</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23725</v>
+        <v>24289</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52301</v>
+        <v>53081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1709823499075701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1123372331907268</v>
+        <v>0.1150087680471423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2476457666200619</v>
+        <v>0.2513406503011733</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>43927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33561</v>
+        <v>32474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56509</v>
+        <v>56368</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3664795312067084</v>
+        <v>0.3664795312067083</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2799977081651244</v>
+        <v>0.2709294838922978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4714516795485628</v>
+        <v>0.4702721835764217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -7266,19 +7266,19 @@
         <v>23501</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15621</v>
+        <v>16024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31676</v>
+        <v>31250</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2240658595663856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1489303261537806</v>
+        <v>0.1527799511146966</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3020024358507496</v>
+        <v>0.2979433031434131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -7287,19 +7287,19 @@
         <v>67428</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54686</v>
+        <v>52763</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83993</v>
+        <v>82091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3000178662648537</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.243320675151564</v>
+        <v>0.2347658574050523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3737196057138108</v>
+        <v>0.3652563817700645</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>19630</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12142</v>
+        <v>12093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30409</v>
+        <v>29853</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.163774798390212</v>
+        <v>0.1637747983902119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1012975021277847</v>
+        <v>0.1008904382768727</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2537029217269327</v>
+        <v>0.249059154016106</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -7337,19 +7337,19 @@
         <v>18232</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12639</v>
+        <v>12329</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25522</v>
+        <v>25746</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1738330901417143</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1205061613566855</v>
+        <v>0.1175484424635516</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2433326422242759</v>
+        <v>0.2454644953504903</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -7358,19 +7358,19 @@
         <v>37863</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27262</v>
+        <v>28015</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50598</v>
+        <v>50588</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.168468805704089</v>
+        <v>0.1684688057040891</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1212995726222432</v>
+        <v>0.1246513538764848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2251320145975468</v>
+        <v>0.225088476254701</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>23476</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14882</v>
+        <v>15342</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32698</v>
+        <v>33515</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1958605738185057</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1241611941599417</v>
+        <v>0.1279994470108491</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2728000754976664</v>
+        <v>0.2796092150168643</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -7408,19 +7408,19 @@
         <v>25178</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17884</v>
+        <v>18848</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32674</v>
+        <v>33178</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2400581074738057</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1705090816677502</v>
+        <v>0.1797003798166796</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3115201340357462</v>
+        <v>0.3163273189017895</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -7429,19 +7429,19 @@
         <v>48655</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37086</v>
+        <v>38114</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>60643</v>
+        <v>62599</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2164866951678214</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.165013280939623</v>
+        <v>0.169586676457962</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.269826192442626</v>
+        <v>0.2785287258627364</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>17503</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10980</v>
+        <v>10511</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28797</v>
+        <v>26885</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.146026016321409</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09160374040579958</v>
+        <v>0.08769112247392058</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2402491062193491</v>
+        <v>0.2243029521843477</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -7479,19 +7479,19 @@
         <v>14461</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9475</v>
+        <v>9525</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21226</v>
+        <v>21309</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1378719746914035</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0903416516645205</v>
+        <v>0.09081001388054967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2023756818246228</v>
+        <v>0.2031643447284972</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -7500,19 +7500,19 @@
         <v>31964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23410</v>
+        <v>22427</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42896</v>
+        <v>42988</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1422206851583726</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1041608901388008</v>
+        <v>0.09978642607341094</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1908627446433554</v>
+        <v>0.1912721647334173</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>15325</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8375</v>
+        <v>8677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25868</v>
+        <v>26905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1278590802631649</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06987038135491795</v>
+        <v>0.07239202706387188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.215818371603764</v>
+        <v>0.2244649956043249</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -7550,19 +7550,19 @@
         <v>23512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17104</v>
+        <v>16577</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32242</v>
+        <v>32247</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2241709681266909</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1630761471397429</v>
+        <v>0.1580483063716272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3074067396926293</v>
+        <v>0.3074525941207005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -7571,19 +7571,19 @@
         <v>38838</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29111</v>
+        <v>28922</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50938</v>
+        <v>52126</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1728059477048633</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1295267113685473</v>
+        <v>0.1286841293365212</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2266444213205553</v>
+        <v>0.2319329797830914</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>49171</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37817</v>
+        <v>37642</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60589</v>
+        <v>60710</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3584632913186484</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.275687545919108</v>
+        <v>0.2744132318653631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4417043418415769</v>
+        <v>0.4425854607360728</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -7696,19 +7696,19 @@
         <v>31926</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24805</v>
+        <v>25138</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40231</v>
+        <v>40801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2643875028719878</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2054224886985493</v>
+        <v>0.2081803798928931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3331689517137533</v>
+        <v>0.3378842763847147</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -7717,19 +7717,19 @@
         <v>81096</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66878</v>
+        <v>68130</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95764</v>
+        <v>94917</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.314419709249679</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2592927418699815</v>
+        <v>0.2641459229956655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3712876082044276</v>
+        <v>0.3680048978354867</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>28404</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19293</v>
+        <v>19700</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39873</v>
+        <v>39685</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.207067827923505</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.140648967266454</v>
+        <v>0.1436177821731686</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2906783153917321</v>
+        <v>0.289307087174614</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -7767,19 +7767,19 @@
         <v>21394</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15018</v>
+        <v>15493</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28293</v>
+        <v>28308</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1771703941348089</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1243717034569101</v>
+        <v>0.1283004794260985</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2343009605580257</v>
+        <v>0.2344313873986831</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -7788,19 +7788,19 @@
         <v>49798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>38448</v>
+        <v>38359</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62823</v>
+        <v>62215</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1930707081494771</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1490679917008729</v>
+        <v>0.1487206868972813</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2435714483742547</v>
+        <v>0.24121322699485</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>29707</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20468</v>
+        <v>21707</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40126</v>
+        <v>39571</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2165709702359691</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1492123067282042</v>
+        <v>0.1582499735894394</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2925253420990594</v>
+        <v>0.2884753619598807</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -7838,19 +7838,19 @@
         <v>29961</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23292</v>
+        <v>22437</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38036</v>
+        <v>37398</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2481171010300335</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1928935416976584</v>
+        <v>0.1858127324061047</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3149881119400968</v>
+        <v>0.3097084580961037</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -7859,19 +7859,19 @@
         <v>59668</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48537</v>
+        <v>47272</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72864</v>
+        <v>72015</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2313399625933872</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1881828749182637</v>
+        <v>0.1832787555248668</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2825020979699613</v>
+        <v>0.2792100026026918</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>13602</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7763</v>
+        <v>7630</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20976</v>
+        <v>21975</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0991616398023632</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05659052124772032</v>
+        <v>0.05562359496690909</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1529153517539583</v>
+        <v>0.1602031069413537</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -7909,19 +7909,19 @@
         <v>18806</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13210</v>
+        <v>13234</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25351</v>
+        <v>25830</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1557362738205783</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.10939359113533</v>
+        <v>0.1095991429283573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2099387273670467</v>
+        <v>0.2139093632045269</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -7930,19 +7930,19 @@
         <v>32408</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23814</v>
+        <v>23643</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42620</v>
+        <v>42920</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1256482584908256</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09232946986733485</v>
+        <v>0.09166462543834443</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1652442132093566</v>
+        <v>0.1664048366959826</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>16287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9071</v>
+        <v>9348</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25518</v>
+        <v>25909</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1187362707195145</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06612672446959965</v>
+        <v>0.06814585472983369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1860277815462134</v>
+        <v>0.1888832277064821</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -7980,19 +7980,19 @@
         <v>18667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13227</v>
+        <v>12373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26669</v>
+        <v>26053</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1545887281425915</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1095392705342939</v>
+        <v>0.1024688773388069</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2208527269163025</v>
+        <v>0.2157505356301463</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -8001,19 +8001,19 @@
         <v>34954</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25488</v>
+        <v>25624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47258</v>
+        <v>46411</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.135521361516631</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09881803586136893</v>
+        <v>0.09934794505904768</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1832259831583775</v>
+        <v>0.1799395336079886</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>10205</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5300</v>
+        <v>5673</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16705</v>
+        <v>16649</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1487582290971304</v>
+        <v>0.1487582290971305</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07726106743662717</v>
+        <v>0.08270440525973975</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2435195916974804</v>
+        <v>0.2427099984081496</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -8126,19 +8126,19 @@
         <v>7566</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4129</v>
+        <v>4151</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11840</v>
+        <v>12395</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1843098410434764</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.100582316343999</v>
+        <v>0.101117693510025</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2884390864969423</v>
+        <v>0.3019652383347011</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -8147,19 +8147,19 @@
         <v>17770</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12499</v>
+        <v>11995</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25496</v>
+        <v>26371</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1620676522027898</v>
+        <v>0.1620676522027897</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1139913568236166</v>
+        <v>0.1094003527702738</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2325322138361276</v>
+        <v>0.2405070477340748</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>13231</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7718</v>
+        <v>7606</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20959</v>
+        <v>20504</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1928771936354391</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1125118673882909</v>
+        <v>0.1108786015250211</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3055373899366035</v>
+        <v>0.2988965998966906</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -8197,19 +8197,19 @@
         <v>7575</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4270</v>
+        <v>4552</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11937</v>
+        <v>12782</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1845374578147874</v>
+        <v>0.1845374578147873</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1040328331894925</v>
+        <v>0.11089346942376</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2908043556554666</v>
+        <v>0.3113909961150675</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -8218,19 +8218,19 @@
         <v>20806</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13844</v>
+        <v>14697</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29411</v>
+        <v>28621</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.189755054678871</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1262571868233184</v>
+        <v>0.1340415327882113</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.268237619219381</v>
+        <v>0.2610294413244446</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>19976</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13390</v>
+        <v>13128</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27304</v>
+        <v>28162</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2912071572442869</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.195192934001266</v>
+        <v>0.1913784612503789</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3980249666922763</v>
+        <v>0.4105404299558468</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -8268,19 +8268,19 @@
         <v>10320</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6516</v>
+        <v>6380</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14604</v>
+        <v>15066</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2514212569606293</v>
+        <v>0.2514212569606292</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1587405801322932</v>
+        <v>0.1554165965334859</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3557738239409804</v>
+        <v>0.3670246907755092</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -8289,19 +8289,19 @@
         <v>30297</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22411</v>
+        <v>22213</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39172</v>
+        <v>38968</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2763125476464457</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2043928131588368</v>
+        <v>0.2025850817918779</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3572576214865664</v>
+        <v>0.355394100569063</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>13205</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8005</v>
+        <v>7933</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20870</v>
+        <v>20203</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1924911283587147</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.116700941276959</v>
+        <v>0.1156510528062095</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3042381878547946</v>
+        <v>0.294507369897923</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -8339,19 +8339,19 @@
         <v>6933</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3709</v>
+        <v>3793</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11275</v>
+        <v>11243</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1689068287757015</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09036113455042742</v>
+        <v>0.09240818617608697</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2746758725943492</v>
+        <v>0.2738913778483781</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>26</v>
@@ -8360,19 +8360,19 @@
         <v>20138</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14166</v>
+        <v>13672</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>28607</v>
+        <v>28396</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1836618965850704</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1291993852324503</v>
+        <v>0.1246905829924512</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2609000718135395</v>
+        <v>0.2589768223535708</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>11982</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6586</v>
+        <v>6590</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19181</v>
+        <v>18641</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.174666291664429</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09600985170334959</v>
+        <v>0.09606065419012005</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2796109960057558</v>
+        <v>0.271748325675262</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -8410,19 +8410,19 @@
         <v>8654</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5193</v>
+        <v>4871</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13779</v>
+        <v>13223</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2108246154054055</v>
+        <v>0.2108246154054054</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1265029849112748</v>
+        <v>0.1186570619221733</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3356895301250682</v>
+        <v>0.322137181627471</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -8431,19 +8431,19 @@
         <v>20636</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14407</v>
+        <v>13705</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30767</v>
+        <v>28418</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1882028488868231</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.131392246412379</v>
+        <v>0.124993898052442</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.280604881725024</v>
+        <v>0.2591802781385348</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>155475</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>131831</v>
+        <v>131042</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>181857</v>
+        <v>180711</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.327814258599174</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2779610842317166</v>
+        <v>0.276297487221575</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3834407314771103</v>
+        <v>0.3810243943087696</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>105</v>
@@ -8556,19 +8556,19 @@
         <v>86305</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>70379</v>
+        <v>72972</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>102119</v>
+        <v>102951</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2227208545078261</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.181622138531074</v>
+        <v>0.1883134693369639</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2635311350867613</v>
+        <v>0.2656782103536351</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>221</v>
@@ -8577,19 +8577,19 @@
         <v>241780</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>213762</v>
+        <v>213249</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>269124</v>
+        <v>271192</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.280558468210394</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2480467630293742</v>
+        <v>0.2474515601764242</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3122878505309098</v>
+        <v>0.3146876663926166</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>84230</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>65644</v>
+        <v>67890</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>105456</v>
+        <v>103546</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1775957631401153</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1384078763001071</v>
+        <v>0.1431435982887901</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2223511082639393</v>
+        <v>0.2183237889505622</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>84</v>
@@ -8627,19 +8627,19 @@
         <v>62097</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>50996</v>
+        <v>50157</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>77178</v>
+        <v>74970</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.160247896975831</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1316000666142034</v>
+        <v>0.1294364623871499</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1991665750190616</v>
+        <v>0.1934684128495181</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>158</v>
@@ -8648,19 +8648,19 @@
         <v>146326</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>124838</v>
+        <v>125294</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>168978</v>
+        <v>169061</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1697952057765013</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1448605009211649</v>
+        <v>0.1453896432954448</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1960802512806595</v>
+        <v>0.1961763366733309</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>107021</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>88677</v>
+        <v>87241</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>130049</v>
+        <v>127477</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2256506013305203</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1869739361878085</v>
+        <v>0.1839447360938448</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2742050738683875</v>
+        <v>0.2687807956772575</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>137</v>
@@ -8698,19 +8698,19 @@
         <v>101559</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>86821</v>
+        <v>87327</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>118440</v>
+        <v>119260</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2620856463035573</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2240517707368888</v>
+        <v>0.2253566909883457</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3056486496220949</v>
+        <v>0.3077651351106574</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>234</v>
@@ -8719,19 +8719,19 @@
         <v>208580</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>182439</v>
+        <v>182747</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>233798</v>
+        <v>236147</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2420338069459273</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.211700154394788</v>
+        <v>0.2120567418890412</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2712962120445314</v>
+        <v>0.2740216154050789</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>58978</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>45323</v>
+        <v>44815</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75747</v>
+        <v>74685</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1243532511226131</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09556237821467453</v>
+        <v>0.09449039436038983</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.15971032966332</v>
+        <v>0.1574702621523829</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>79</v>
@@ -8769,19 +8769,19 @@
         <v>61438</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>48919</v>
+        <v>49782</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>76207</v>
+        <v>76133</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1585480553916577</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1262425482055018</v>
+        <v>0.1284681840750585</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1966608572168211</v>
+        <v>0.1964701559379064</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>132</v>
@@ -8790,19 +8790,19 @@
         <v>120416</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>101284</v>
+        <v>101313</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>144114</v>
+        <v>143032</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1397291209680582</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1175287211105248</v>
+        <v>0.1175618706907827</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1672277186164399</v>
+        <v>0.1659727211279155</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>68574</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>51990</v>
+        <v>50648</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>91232</v>
+        <v>90236</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1445861258075774</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1096199645737169</v>
+        <v>0.106789629787813</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.192359810265061</v>
+        <v>0.1902592031619156</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>92</v>
@@ -8840,19 +8840,19 @@
         <v>76105</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>61951</v>
+        <v>62336</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>92757</v>
+        <v>91851</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.196397546821128</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1598719823544182</v>
+        <v>0.1608642455092699</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2393713191266978</v>
+        <v>0.2370312365259358</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>140</v>
@@ -8861,19 +8861,19 @@
         <v>144679</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>120995</v>
+        <v>123504</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>169836</v>
+        <v>170500</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1678833980991193</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1404007097431938</v>
+        <v>0.1433128479028395</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1970752782401221</v>
+        <v>0.197846178295175</v>
       </c>
     </row>
     <row r="39">
